--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaPhiLePhi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaPhiLePhi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F4DFB6-BC63-4CF0-BAD1-966C7559ED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6E25C-D158-409A-90F7-48CC8F35FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{553D1BC0-F73B-4084-8E91-F41CD79D895B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>CHƯƠNG I: XE DO VIỆT NAM LẮP RÁP</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>GIÁ LỆ PHÍ TRƯỚC BẠ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +193,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -211,40 +221,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -271,46 +253,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,1078 +671,1090 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E653E7BB-1F0E-4787-8F43-00784E2E0D68}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="41.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="C3" s="13"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10">
+      <c r="C7" s="15"/>
+      <c r="D7" s="18">
         <v>220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18">
         <v>280000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18">
         <v>300000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10">
+      <c r="C11" s="15"/>
+      <c r="D11" s="18">
         <v>340000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18">
         <v>380000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18">
         <v>400000000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10">
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18">
         <v>200000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18">
         <v>220000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10">
+      <c r="C18" s="15"/>
+      <c r="D18" s="18">
         <v>230000000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="18">
         <v>270000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18">
         <v>280000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18">
         <v>435370000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>1.2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10">
+      <c r="C24" s="15"/>
+      <c r="D24" s="18">
         <v>120000000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="18">
         <v>140000000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="18">
         <v>150000000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10">
+      <c r="C28" s="15"/>
+      <c r="D28" s="18">
         <v>110000000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18">
         <v>130000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="18">
         <v>140000000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>1.3</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10">
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="18">
         <v>580000000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18">
         <v>600000000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10">
+      <c r="C35" s="15"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="18">
         <v>680000000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="18">
         <v>700000000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>1.4</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10">
+      <c r="C39" s="15"/>
+      <c r="D39" s="18">
         <v>653500000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10">
+      <c r="C40" s="15"/>
+      <c r="D40" s="18">
         <v>705000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10">
+      <c r="C41" s="15"/>
+      <c r="D41" s="18">
         <v>635000000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
+    <row r="42" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="10">
+      <c r="C42" s="15"/>
+      <c r="D42" s="18">
         <v>655000000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10">
+      <c r="C43" s="15"/>
+      <c r="D43" s="18">
         <v>613500000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="8" t="s">
+    <row r="44" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10">
+      <c r="C44" s="15"/>
+      <c r="D44" s="18">
         <v>633500000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10">
+      <c r="C45" s="15"/>
+      <c r="D45" s="18">
         <v>685000000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10">
+      <c r="C46" s="15"/>
+      <c r="D46" s="18">
         <v>635500000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10">
+      <c r="C47" s="15"/>
+      <c r="D47" s="18">
         <v>641550000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8" t="s">
+    <row r="48" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10">
+      <c r="C48" s="15"/>
+      <c r="D48" s="18">
         <v>656500000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="8" t="s">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="10">
+      <c r="C49" s="15"/>
+      <c r="D49" s="18">
         <v>686500000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="8" t="s">
+    <row r="50" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10">
+      <c r="C50" s="15"/>
+      <c r="D50" s="18">
         <v>769950000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>2</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="10">
+      <c r="C53" s="15"/>
+      <c r="D53" s="18">
         <v>180000000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="10">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="18">
         <v>210000000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="10">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="18">
         <v>230000000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="10">
+      <c r="C57" s="15"/>
+      <c r="D57" s="18">
         <v>200000000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="10">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="18">
         <v>230000000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="10">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="18">
         <v>240000000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="10">
+      <c r="C61" s="15"/>
+      <c r="D61" s="18">
         <v>250000000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="10">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="18">
         <v>270000000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="10">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="18">
         <v>290000000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="8" t="s">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="8" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10">
+      <c r="C66" s="15"/>
+      <c r="D66" s="18">
         <v>300000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10">
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="18">
         <v>400000000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10">
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="18">
         <v>430000000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8" t="s">
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10">
+      <c r="C70" s="15"/>
+      <c r="D70" s="18">
         <v>300000000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10">
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="18">
         <v>350000000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10">
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="18">
         <v>400000000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="8" t="s">
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="10">
+      <c r="C75" s="15"/>
+      <c r="D75" s="18">
         <v>380000000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="10">
+    <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="18">
         <v>420000000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="10">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="18">
         <v>450000000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="10">
+      <c r="C79" s="15"/>
+      <c r="D79" s="18">
         <v>330000000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="10">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="18">
         <v>360000000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="10">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="18">
         <v>390000000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="8" t="s">
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="15"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="10">
+      <c r="C84" s="15"/>
+      <c r="D84" s="18">
         <v>600000000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="10">
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="18">
         <v>650000000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="10">
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="18">
         <v>660000000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="8" t="s">
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="15"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="10">
+      <c r="C88" s="15"/>
+      <c r="D88" s="18">
         <v>330000000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="10">
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="18">
         <v>400000000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="10">
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="18">
         <v>500000000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="8" t="s">
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="15"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="10">
+      <c r="C92" s="15"/>
+      <c r="D92" s="18">
         <v>180000000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="10">
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="18">
         <v>210000000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="10">
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="18">
         <v>230000000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="8" t="s">
+    <row r="95" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="15"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="8" t="s">
+      <c r="C96" s="15"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="10">
+      <c r="C97" s="15"/>
+      <c r="D97" s="18">
         <v>200000000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="10">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="18">
         <v>220000000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="10">
+    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="18">
         <v>240000000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="8" t="s">
+    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="15"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="10">
+      <c r="C101" s="15"/>
+      <c r="D101" s="18">
         <v>210000000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="10">
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="18">
         <v>220000000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="10">
+    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="18">
         <v>230000000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="8" t="s">
+    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="8" t="s">
+      <c r="C104" s="15"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="10">
+      <c r="C105" s="15"/>
+      <c r="D105" s="18">
         <v>220000000</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="10">
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="18">
         <v>240000000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="10">
+    <row r="107" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="18">
         <v>280000000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="8" t="s">
+    <row r="108" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="10">
+      <c r="C108" s="15"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="18">
         <v>240000000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="10">
+    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="18">
         <v>250000000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="8" t="s">
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="10">
+      <c r="C111" s="15"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="18">
         <v>230000000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaPhiLePhi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaPhiLePhi.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E1B9C3-CEF4-4A2A-9B19-677399EAFD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FC524-6E20-4FD7-9BD6-2F5D2EA91ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{553D1BC0-F73B-4084-8E91-F41CD79D895B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{553D1BC0-F73B-4084-8E91-F41CD79D895B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,15 +120,6 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>40.000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>b</t>
     </r>
   </si>
@@ -147,15 +138,6 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>20.000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -183,30 +165,12 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>Gia hạn hoặc cấp lại</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
@@ -351,15 +315,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>300.000</t>
-    </r>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -402,17 +357,32 @@
       </rPr>
       <t>Lệ phí</t>
     </r>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>300.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -460,6 +430,17 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -512,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,22 +512,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,27 +843,27 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -897,19 +875,19 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>48</v>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="10"/>
@@ -937,31 +915,31 @@
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="10"/>
@@ -975,34 +953,34 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
@@ -1013,28 +991,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1042,94 +1020,94 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11">
         <v>9100000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1137,6 +1115,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:D1048576" xr:uid="{10F8DEBF-CB03-41C2-B239-373132D260C9}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
